--- a/DateBase/orders/Fresh bloom Flowers_2025-11-18.xlsx
+++ b/DateBase/orders/Fresh bloom Flowers_2025-11-18.xlsx
@@ -868,6 +868,9 @@
       <c r="G2" t="str">
         <v>01215620106231021065105152055155030101585101515101530103010551552410101510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
